--- a/SDK设计相关文档/SDK版本特性规划.xlsx
+++ b/SDK设计相关文档/SDK版本特性规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="总体框图" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
   <si>
     <t>条目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,14 @@
   </si>
   <si>
     <t>参数读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_dev_connect.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接查找设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -822,6 +830,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,7 +1299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1323,7 +1334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1514,7 +1525,7 @@
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,16 +1541,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="5" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,8 +1576,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="9">
@@ -1585,8 +1596,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1603,8 +1614,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
       <c r="B4" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1619,8 +1630,8 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1635,7 +1646,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +1662,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
@@ -1661,7 +1672,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4"/>
@@ -1671,7 +1682,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="2"/>
@@ -1681,7 +1692,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2"/>
@@ -1691,7 +1702,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
@@ -1701,7 +1712,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
@@ -1711,7 +1722,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
@@ -1777,17 +1788,17 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1813,8 +1824,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="3">
@@ -1833,8 +1844,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="3">
         <v>1.2</v>
       </c>
@@ -1851,8 +1862,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
       <c r="B4" s="3">
         <v>1.2</v>
       </c>
@@ -1869,8 +1880,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
       <c r="B5" s="3">
         <v>1.2</v>
       </c>
@@ -1889,8 +1900,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="3">
         <v>1.2</v>
       </c>
@@ -1909,8 +1920,8 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -1929,8 +1940,8 @@
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -1947,7 +1958,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1957,7 +1968,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1967,8 +1978,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9">
@@ -1985,8 +1996,8 @@
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
       <c r="B12" s="9">
         <v>1</v>
       </c>
@@ -2003,8 +2014,8 @@
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -2021,8 +2032,8 @@
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
@@ -2039,8 +2050,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
       <c r="B15" s="9">
         <v>1</v>
       </c>
@@ -2057,8 +2068,8 @@
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
       <c r="B16" s="9">
         <v>1</v>
       </c>
@@ -2075,7 +2086,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2085,8 +2096,8 @@
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="3">
@@ -2105,8 +2116,8 @@
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
       <c r="B19" s="9">
         <v>1</v>
       </c>
@@ -2123,7 +2134,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2133,7 +2144,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2192,17 +2203,17 @@
       <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2228,8 +2239,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
@@ -2248,8 +2259,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2266,8 +2277,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
       <c r="B4" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2284,8 +2295,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
       <c r="B5" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2302,8 +2313,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
       <c r="B6" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2320,8 +2331,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -2338,7 +2349,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -2348,7 +2359,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2368,7 +2379,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="3">
         <v>1.1000000000000001</v>
@@ -2386,7 +2397,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="11"/>
@@ -2396,7 +2407,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2406,7 +2417,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2437,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2436,7 +2447,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2456,7 +2467,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="3">
         <v>1.1000000000000001</v>
@@ -2474,7 +2485,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2484,7 +2495,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2504,7 +2515,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2514,7 +2525,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -2534,7 +2545,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2544,7 +2555,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2554,7 +2565,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>20</v>
       </c>
@@ -2574,7 +2585,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="3">
         <v>1.1000000000000001</v>
@@ -2592,7 +2603,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="3">
         <v>1.1000000000000001</v>
@@ -2610,7 +2621,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="3">
         <v>1.1000000000000001</v>
@@ -2628,7 +2639,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="3"/>
       <c r="C27" s="10"/>
@@ -2638,7 +2649,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
@@ -2648,7 +2659,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -2658,7 +2669,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -2668,7 +2679,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +2699,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9">
         <v>1.1000000000000001</v>
@@ -2706,7 +2717,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -2716,7 +2727,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -2726,7 +2737,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>22</v>
       </c>
@@ -2746,7 +2757,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -2756,7 +2767,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -2766,7 +2777,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -2776,7 +2787,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +2807,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="3">
         <v>1.1000000000000001</v>
@@ -2814,7 +2825,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="3">
         <v>1.1000000000000001</v>
@@ -2832,7 +2843,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="3">
         <v>1.2</v>
@@ -2850,7 +2861,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2860,7 +2871,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>24</v>
       </c>
@@ -2880,7 +2891,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2890,7 +2901,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2900,7 +2911,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2910,7 +2921,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
@@ -2930,7 +2941,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="3">
         <v>1.1000000000000001</v>
@@ -2948,7 +2959,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2958,7 +2969,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2968,7 +2979,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2978,7 +2989,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -3041,16 +3052,16 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3076,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
@@ -3096,7 +3107,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>1.1000000000000001</v>
@@ -3116,7 +3127,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
@@ -3126,7 +3137,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -3146,7 +3157,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1.1000000000000001</v>
@@ -3164,7 +3175,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -3174,7 +3185,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>82</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="9">
         <v>1.1000000000000001</v>
@@ -3214,7 +3225,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2"/>
@@ -3224,7 +3235,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -3234,7 +3245,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3244,7 +3255,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -3254,7 +3265,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
@@ -3264,7 +3275,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3274,7 +3285,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3334,14 +3345,14 @@
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3367,8 +3378,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="12">
@@ -3387,8 +3398,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="3">
         <v>109</v>
       </c>
@@ -3405,8 +3416,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
       <c r="B4" s="3">
         <v>109</v>
       </c>
@@ -3423,8 +3434,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
       <c r="B5" s="3">
         <v>109</v>
       </c>
@@ -3441,8 +3452,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
       <c r="B6" s="3">
         <v>109</v>
       </c>
@@ -3459,8 +3470,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="3">
         <v>109</v>
       </c>
@@ -3479,8 +3490,8 @@
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
       <c r="B8" s="3">
         <v>110</v>
       </c>
@@ -3497,8 +3508,8 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="3">
         <v>110</v>
       </c>
@@ -3515,7 +3526,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
@@ -3525,7 +3536,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -3535,7 +3546,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
@@ -3545,7 +3556,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="11"/>
@@ -3555,7 +3566,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
@@ -3565,7 +3576,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -3575,7 +3586,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3585,7 +3596,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -3595,7 +3606,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2"/>
@@ -3605,7 +3616,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3615,7 +3626,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3677,15 +3688,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3705,8 +3716,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="9">
@@ -3723,8 +3734,8 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
       <c r="B3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -3737,8 +3748,8 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
       <c r="B4" s="9">
         <v>1.2</v>
       </c>
@@ -3751,8 +3762,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="3">
@@ -3769,8 +3780,8 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
       <c r="B6" s="13">
         <v>109</v>
       </c>
@@ -3783,8 +3794,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="13">
         <v>110</v>
       </c>
@@ -3856,19 +3867,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -3879,8 +3890,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -3890,8 +3901,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
       <c r="B3" s="18" t="s">
         <v>114</v>
       </c>
@@ -3899,8 +3910,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
       <c r="B4" s="18" t="s">
         <v>115</v>
       </c>
@@ -3908,8 +3919,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="18" t="s">
         <v>116</v>
       </c>
@@ -3917,318 +3928,327 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>118</v>
-      </c>
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4244,7 +4264,7 @@
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
